--- a/DIU_CPC_BlueDivision/DIU_CPC_BlueDivision/Excel_Files/ExcelFileDemo1.xlsx
+++ b/DIU_CPC_BlueDivision/DIU_CPC_BlueDivision/Excel_Files/ExcelFileDemo1.xlsx
@@ -19,13 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="54">
-  <si>
-    <t>[Timus 1014] Product of Digits</t>
-  </si>
-  <si>
-    <t>[Timus 1020] Rope</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="60">
   <si>
     <t>[Timus 1000] A+B Problem</t>
   </si>
@@ -63,6 +57,42 @@
     <t>[LOJ 1015] Brush (I)</t>
   </si>
   <si>
+    <t>[LOJ 1022] Circle in Square</t>
+  </si>
+  <si>
+    <t>[LOJ 1053] Higher Math</t>
+  </si>
+  <si>
+    <t>[LOJ 1069] Lift</t>
+  </si>
+  <si>
+    <t>[LOJ 1072] Calm Down</t>
+  </si>
+  <si>
+    <t>[LOJ 1107] How Cow</t>
+  </si>
+  <si>
+    <t>[LOJ 1116] Ekka Dokka</t>
+  </si>
+  <si>
+    <t>[LOJ 1136] Division By 3</t>
+  </si>
+  <si>
+    <t>[LOJ 1182] Parity</t>
+  </si>
+  <si>
+    <t>[LOJ 1202] Bishops</t>
+  </si>
+  <si>
+    <t>[LOJ 1211] Intersection of Cubes</t>
+  </si>
+  <si>
+    <t>[LOJ 1216] Juice in the Glass</t>
+  </si>
+  <si>
+    <t>[LOJ 1294] Positive Negative Sign</t>
+  </si>
+  <si>
     <t>[LOJ 1305] Area of a Parallelogram</t>
   </si>
   <si>
@@ -81,27 +111,6 @@
     <t>[Timus 1001] Reverse Root</t>
   </si>
   <si>
-    <t>[LA 2189] Mobile Casanova</t>
-  </si>
-  <si>
-    <t>[LA 3012] All Integer Average</t>
-  </si>
-  <si>
-    <t>[UVa 1209] Wordfish</t>
-  </si>
-  <si>
-    <t>[LA 3996] Digit Counting</t>
-  </si>
-  <si>
-    <t>[LA 4202] Schedule of a Married Man</t>
-  </si>
-  <si>
-    <t>[LA 4786] Barcodes</t>
-  </si>
-  <si>
-    <t>[SPOJ AGGRCOW] Aggressive Cows</t>
-  </si>
-  <si>
     <t>http://acm.timus.ru/problem.aspx?space=1&amp;num=1000</t>
   </si>
   <si>
@@ -181,6 +190,15 @@
   </si>
   <si>
     <t>http://acm.timus.ru/problem.aspx?space=1&amp;num=1026</t>
+  </si>
+  <si>
+    <t>http://acm.timus.ru/problem.aspx?space=1&amp;num=1027</t>
+  </si>
+  <si>
+    <t>http://acm.timus.ru/problem.aspx?space=1&amp;num=1028</t>
+  </si>
+  <si>
+    <t>http://acm.timus.ru/problem.aspx?space=1&amp;num=1029</t>
   </si>
 </sst>
 </file>
@@ -527,177 +545,176 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="45.42578125" customWidth="1"/>
-    <col min="2" max="2" width="54.7109375" customWidth="1"/>
-    <col min="3" max="3" width="31.85546875" customWidth="1"/>
+    <col min="1" max="1" width="44.28515625" customWidth="1"/>
+    <col min="2" max="2" width="56.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>0</v>
+        <v>18</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -705,7 +722,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -713,7 +730,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -721,7 +738,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -729,7 +746,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -737,7 +754,7 @@
         <v>24</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
@@ -745,50 +762,79 @@
         <v>25</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
         <v>26</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>53</v>
+        <v>56</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>59</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="A1" r:id="rId1" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1000"/>
-    <hyperlink ref="A2" r:id="rId2" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1264"/>
-    <hyperlink ref="A3" r:id="rId3" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1293"/>
-    <hyperlink ref="A4" r:id="rId4" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1409"/>
-    <hyperlink ref="A5" r:id="rId5" display="http://acm.timus.ru/problem.aspx?num=1068"/>
-    <hyperlink ref="A6" r:id="rId6" display="http://acm.timus.ru/problem.aspx?num=1083"/>
-    <hyperlink ref="A7" r:id="rId7" display="http://acm.timus.ru/problem.aspx?num=1086"/>
-    <hyperlink ref="A8" r:id="rId8" display="http://acm.timus.ru/problem.aspx?num=1209"/>
-    <hyperlink ref="A9" r:id="rId9" display="http://www.lightoj.com/volume_showproblem.php?problem=1001"/>
-    <hyperlink ref="A10" r:id="rId10" display="http://www.lightoj.com/volume_showproblem.php?problem=1008"/>
-    <hyperlink ref="A11" r:id="rId11" display="http://www.lightoj.com/volume_showproblem.php?problem=1010"/>
-    <hyperlink ref="A12" r:id="rId12" display="http://www.lightoj.com/volume_showproblem.php?problem=1015"/>
-    <hyperlink ref="A13" r:id="rId13" display="http://www.lightoj.com/volume_showproblem.php?problem=1305"/>
-    <hyperlink ref="A14" r:id="rId14" display="http://www.lightoj.com/volume_showproblem.php?problem=1311"/>
-    <hyperlink ref="A15" r:id="rId15" display="http://www.lightoj.com/volume_showproblem.php?problem=1331"/>
-    <hyperlink ref="A16" r:id="rId16" display="http://www.lightoj.com/volume_showproblem.php?problem=1433"/>
-    <hyperlink ref="A17" r:id="rId17" display="https://uva.onlinejudge.org/index.php?option=com_onlinejudge&amp;Itemid=8&amp;category=3&amp;page=show_problem&amp;problem=36"/>
-    <hyperlink ref="A18" r:id="rId18" display="http://acm.timus.ru/problem.aspx?num=1001"/>
-    <hyperlink ref="A19" r:id="rId19" display="http://acm.timus.ru/problem.aspx?num=1014"/>
-    <hyperlink ref="A20" r:id="rId20" display="http://acm.timus.ru/problem.aspx?num=1020"/>
-    <hyperlink ref="A21" r:id="rId21" display="https://icpcarchive.ecs.baylor.edu/index.php?option=com_onlinejudge&amp;Itemid=8&amp;page=show_problem&amp;problem=190"/>
-    <hyperlink ref="A22" r:id="rId22" display="https://icpcarchive.ecs.baylor.edu/index.php?option=com_onlinejudge&amp;Itemid=8&amp;page=show_problem&amp;problem=1013"/>
-    <hyperlink ref="A23" r:id="rId23" display="https://uva.onlinejudge.org/index.php?option=com_onlinejudge&amp;Itemid=8&amp;page=show_problem&amp;problem=3650"/>
-    <hyperlink ref="A24" r:id="rId24" display="https://icpcarchive.ecs.baylor.edu/index.php?option=com_onlinejudge&amp;Itemid=8&amp;page=show_problem&amp;problem=1997"/>
-    <hyperlink ref="A25" r:id="rId25" display="https://icpcarchive.ecs.baylor.edu/index.php?option=onlinejudge&amp;page=show_problem&amp;problem=2203"/>
-    <hyperlink ref="A26" r:id="rId26" display="https://icpcarchive.ecs.baylor.edu/index.php?option=com_onlinejudge&amp;Itemid=8&amp;page=show_problem&amp;problem=2787"/>
-    <hyperlink ref="A27" r:id="rId27" display="http://www.spoj.com/problems/AGGRCOW/"/>
-    <hyperlink ref="B1" r:id="rId28"/>
-    <hyperlink ref="B2:B27" r:id="rId29" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1000"/>
+    <hyperlink ref="A30" r:id="rId1" display="http://acm.timus.ru/problem.aspx?num=1001"/>
+    <hyperlink ref="B1" r:id="rId2"/>
+    <hyperlink ref="B2:B17" r:id="rId3" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1000"/>
+    <hyperlink ref="B18" r:id="rId4" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1000"/>
+    <hyperlink ref="B19:B34" r:id="rId5" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1000"/>
+    <hyperlink ref="A29" r:id="rId6" display="https://uva.onlinejudge.org/index.php?option=com_onlinejudge&amp;Itemid=8&amp;category=3&amp;page=show_problem&amp;problem=36"/>
+    <hyperlink ref="A28" r:id="rId7" display="http://www.lightoj.com/volume_showproblem.php?problem=1433"/>
+    <hyperlink ref="A27" r:id="rId8" display="http://www.lightoj.com/volume_showproblem.php?problem=1331"/>
+    <hyperlink ref="A26" r:id="rId9" display="http://www.lightoj.com/volume_showproblem.php?problem=1311"/>
+    <hyperlink ref="A25" r:id="rId10" display="http://www.lightoj.com/volume_showproblem.php?problem=1305"/>
+    <hyperlink ref="A24" r:id="rId11" display="http://www.lightoj.com/volume_showproblem.php?problem=1294"/>
+    <hyperlink ref="A23" r:id="rId12" display="http://www.lightoj.com/volume_showproblem.php?problem=1216"/>
+    <hyperlink ref="A22" r:id="rId13" display="http://www.lightoj.com/volume_showproblem.php?problem=1211"/>
+    <hyperlink ref="A21" r:id="rId14" display="http://www.lightoj.com/volume_showproblem.php?problem=1202"/>
+    <hyperlink ref="A20" r:id="rId15" display="http://www.lightoj.com/volume_showproblem.php?problem=1182"/>
+    <hyperlink ref="A19" r:id="rId16" display="http://www.lightoj.com/volume_showproblem.php?problem=1136"/>
+    <hyperlink ref="A18" r:id="rId17" display="http://www.lightoj.com/volume_showproblem.php?problem=1116"/>
+    <hyperlink ref="A17" r:id="rId18" display="http://www.lightoj.com/volume_showproblem.php?problem=1107"/>
+    <hyperlink ref="A16" r:id="rId19" display="http://www.lightoj.com/volume_showproblem.php?problem=1072"/>
+    <hyperlink ref="A15" r:id="rId20" display="http://www.lightoj.com/volume_showproblem.php?problem=1069"/>
+    <hyperlink ref="A14" r:id="rId21" display="http://www.lightoj.com/volume_showproblem.php?problem=1053"/>
+    <hyperlink ref="A13" r:id="rId22" display="http://www.lightoj.com/volume_showproblem.php?problem=1022"/>
+    <hyperlink ref="A12" r:id="rId23" display="http://www.lightoj.com/volume_showproblem.php?problem=1015"/>
+    <hyperlink ref="A11" r:id="rId24" display="http://www.lightoj.com/volume_showproblem.php?problem=1010"/>
+    <hyperlink ref="A10" r:id="rId25" display="http://www.lightoj.com/volume_showproblem.php?problem=1008"/>
+    <hyperlink ref="A9" r:id="rId26" display="http://www.lightoj.com/volume_showproblem.php?problem=1001"/>
+    <hyperlink ref="A8" r:id="rId27" display="http://acm.timus.ru/problem.aspx?num=1209"/>
+    <hyperlink ref="A7" r:id="rId28" display="http://acm.timus.ru/problem.aspx?num=1086"/>
+    <hyperlink ref="A6" r:id="rId29" display="http://acm.timus.ru/problem.aspx?num=1083"/>
+    <hyperlink ref="A5" r:id="rId30" display="http://acm.timus.ru/problem.aspx?num=1068"/>
+    <hyperlink ref="A4" r:id="rId31" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1409"/>
+    <hyperlink ref="A3" r:id="rId32" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1293"/>
+    <hyperlink ref="A2" r:id="rId33" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1264"/>
+    <hyperlink ref="A1" r:id="rId34" display="http://acm.timus.ru/problem.aspx?space=1&amp;num=1000"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId30"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId35"/>
 </worksheet>
 </file>